--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T20:18:51+00:00</t>
+    <t>2024-02-09T15:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PueblosOriginariosVS.xlsx
+++ b/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
